--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ncam1-Robo3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ncam1-Robo3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5869213333333333</v>
+        <v>1.296878333333333</v>
       </c>
       <c r="H2">
-        <v>1.760764</v>
+        <v>3.890635</v>
       </c>
       <c r="I2">
-        <v>0.01834079054277507</v>
+        <v>0.01774073260139904</v>
       </c>
       <c r="J2">
-        <v>0.02446997850397404</v>
+        <v>0.02506266560199287</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,10 +558,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.105595666666666</v>
+        <v>1.565239</v>
       </c>
       <c r="N2">
-        <v>9.316787</v>
+        <v>4.695717</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>1.822740349474222</v>
+        <v>2.029924545588333</v>
       </c>
       <c r="R2">
-        <v>16.404663145268</v>
+        <v>18.269320910295</v>
       </c>
       <c r="S2">
-        <v>0.01834079054277507</v>
+        <v>0.01774073260139904</v>
       </c>
       <c r="T2">
-        <v>0.02446997850397404</v>
+        <v>0.02506266560199287</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>21.806844</v>
       </c>
       <c r="I3">
-        <v>0.2271484186426865</v>
+        <v>0.09943605305674341</v>
       </c>
       <c r="J3">
-        <v>0.3030576522007011</v>
+        <v>0.1404751766759988</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.105595666666666</v>
+        <v>1.565239</v>
       </c>
       <c r="N3">
-        <v>9.316787</v>
+        <v>4.695717</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>22.57441341002533</v>
+        <v>11.377640898572</v>
       </c>
       <c r="R3">
-        <v>203.169720690228</v>
+        <v>102.398768087148</v>
       </c>
       <c r="S3">
-        <v>0.2271484186426865</v>
+        <v>0.09943605305674341</v>
       </c>
       <c r="T3">
-        <v>0.3030576522007011</v>
+        <v>0.1404751766759988</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.070339</v>
+        <v>0.09795233333333332</v>
       </c>
       <c r="H4">
-        <v>0.211017</v>
+        <v>0.293857</v>
       </c>
       <c r="I4">
-        <v>0.002198033693308568</v>
+        <v>0.001339945397100812</v>
       </c>
       <c r="J4">
-        <v>0.002932580092490016</v>
+        <v>0.001892965987764162</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,10 +682,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.105595666666666</v>
+        <v>1.565239</v>
       </c>
       <c r="N4">
-        <v>9.316787</v>
+        <v>4.695717</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.2184444935976667</v>
+        <v>0.1533188122743333</v>
       </c>
       <c r="R4">
-        <v>1.966000442379</v>
+        <v>1.379869310469</v>
       </c>
       <c r="S4">
-        <v>0.002198033693308568</v>
+        <v>0.001339945397100812</v>
       </c>
       <c r="T4">
-        <v>0.002932580092490016</v>
+        <v>0.001892965987764162</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.046532</v>
+        <v>64.06892400000001</v>
       </c>
       <c r="H5">
-        <v>48.093064</v>
+        <v>128.137848</v>
       </c>
       <c r="I5">
-        <v>0.7514335936425405</v>
+        <v>0.8764350668284411</v>
       </c>
       <c r="J5">
-        <v>0.6683668238731867</v>
+        <v>0.8254375019458241</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,10 +744,10 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.105595666666666</v>
+        <v>1.565239</v>
       </c>
       <c r="N5">
-        <v>9.316787</v>
+        <v>4.695717</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>74.67880557756132</v>
+        <v>100.283178532836</v>
       </c>
       <c r="R5">
-        <v>448.072833465368</v>
+        <v>601.6990711970161</v>
       </c>
       <c r="S5">
-        <v>0.7514335936425405</v>
+        <v>0.8764350668284411</v>
       </c>
       <c r="T5">
-        <v>0.6683668238731867</v>
+        <v>0.8254375019458241</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.028134</v>
+        <v>0.3690323333333334</v>
       </c>
       <c r="H6">
-        <v>0.084402</v>
+        <v>1.107097</v>
       </c>
       <c r="I6">
-        <v>0.0008791634786895356</v>
+        <v>0.005048202116315478</v>
       </c>
       <c r="J6">
-        <v>0.001172965329648049</v>
+        <v>0.007131689788420014</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.105595666666666</v>
+        <v>1.565239</v>
       </c>
       <c r="N6">
-        <v>9.316787</v>
+        <v>4.695717</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.087372828486</v>
+        <v>0.5776238003943334</v>
       </c>
       <c r="R6">
-        <v>0.7863554563740001</v>
+        <v>5.198614203549</v>
       </c>
       <c r="S6">
-        <v>0.0008791634786895356</v>
+        <v>0.005048202116315478</v>
       </c>
       <c r="T6">
-        <v>0.001172965329648049</v>
+        <v>0.007131689788420014</v>
       </c>
     </row>
   </sheetData>
